--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Enfermedad renal terminal (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Enfermedad renal terminal (INC).xlsx
@@ -466,18 +466,18 @@
         <v>10.80983679783726</v>
       </c>
       <c r="B3" t="n">
-        <v>3.467090337766486</v>
+        <v>3.467090337766507</v>
       </c>
       <c r="C3" t="n">
-        <v>20.81018269942083</v>
+        <v>20.81018269942084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.17711831968099</v>
+        <v>20.17711831968098</v>
       </c>
       <c r="B4" t="n">
-        <v>11.88188497869238</v>
+        <v>11.88188497869239</v>
       </c>
       <c r="C4" t="n">
         <v>30.36286495849242</v>
@@ -488,7 +488,7 @@
         <v>13.94545940714678</v>
       </c>
       <c r="B5" t="n">
-        <v>6.25081157207233</v>
+        <v>6.250811572072351</v>
       </c>
       <c r="C5" t="n">
         <v>23.92672016441583</v>
@@ -499,7 +499,7 @@
         <v>34.29894212987133</v>
       </c>
       <c r="B6" t="n">
-        <v>24.35885893076539</v>
+        <v>24.3588589307654</v>
       </c>
       <c r="C6" t="n">
         <v>44.63400375485631</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50.01713543780805</v>
+        <v>50.01713543780804</v>
       </c>
       <c r="B7" t="n">
-        <v>38.14012105091748</v>
+        <v>38.14012105091749</v>
       </c>
       <c r="C7" t="n">
         <v>60.72468160087072</v>
@@ -521,7 +521,7 @@
         <v>86.0717753436752</v>
       </c>
       <c r="B8" t="n">
-        <v>70.06723137653319</v>
+        <v>70.06723137653316</v>
       </c>
       <c r="C8" t="n">
         <v>97.50809292405901</v>
@@ -532,7 +532,7 @@
         <v>32.76520307480479</v>
       </c>
       <c r="B9" t="n">
-        <v>22.89139662007137</v>
+        <v>22.89139662007138</v>
       </c>
       <c r="C9" t="n">
         <v>43.10483524889202</v>
@@ -543,7 +543,7 @@
         <v>87.6906950227123</v>
       </c>
       <c r="B10" t="n">
-        <v>71.34568945337446</v>
+        <v>71.34568945337443</v>
       </c>
       <c r="C10" t="n">
         <v>99.11001199635632</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>62.60522019293186</v>
+        <v>62.60522019293185</v>
       </c>
       <c r="B11" t="n">
         <v>49.14963269229647</v>
@@ -565,7 +565,7 @@
         <v>46.88702688499514</v>
       </c>
       <c r="B12" t="n">
-        <v>35.36837057214438</v>
+        <v>35.36837057214439</v>
       </c>
       <c r="C12" t="n">
         <v>57.37597404525591</v>
@@ -576,7 +576,7 @@
         <v>82.99277516524464</v>
       </c>
       <c r="B13" t="n">
-        <v>67.18207835744843</v>
+        <v>67.18207835744842</v>
       </c>
       <c r="C13" t="n">
         <v>94.20303570824402</v>
@@ -587,7 +587,7 @@
         <v>71.98953783956969</v>
       </c>
       <c r="B14" t="n">
-        <v>57.52662648645181</v>
+        <v>57.5266264864518</v>
       </c>
       <c r="C14" t="n">
         <v>83.03388426360851</v>
@@ -598,7 +598,7 @@
         <v>17.0810820164563</v>
       </c>
       <c r="B15" t="n">
-        <v>9.034532806378174</v>
+        <v>9.034532806378195</v>
       </c>
       <c r="C15" t="n">
         <v>27.04325762941082</v>
@@ -609,7 +609,7 @@
         <v>34.33301437945956</v>
       </c>
       <c r="B16" t="n">
-        <v>24.28325723722429</v>
+        <v>24.2832572372243</v>
       </c>
       <c r="C16" t="n">
         <v>44.66310398138952</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>46.81888238581868</v>
+        <v>46.81888238581869</v>
       </c>
       <c r="B17" t="n">
         <v>35.51957395922658</v>
@@ -631,10 +631,10 @@
         <v>20.14304607009276</v>
       </c>
       <c r="B18" t="n">
-        <v>11.95748667223348</v>
+        <v>11.95748667223349</v>
       </c>
       <c r="C18" t="n">
-        <v>30.33376473195922</v>
+        <v>30.33376473195921</v>
       </c>
     </row>
     <row r="19">
@@ -642,21 +642,21 @@
         <v>65.72380667744727</v>
       </c>
       <c r="B19" t="n">
-        <v>51.97115477337287</v>
+        <v>51.97115477337286</v>
       </c>
       <c r="C19" t="n">
-        <v>76.5686392429987</v>
+        <v>76.56863924299871</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>37.43456473918084</v>
+        <v>37.43456473918085</v>
       </c>
       <c r="B20" t="n">
-        <v>27.14258016507123</v>
+        <v>27.14258016507124</v>
       </c>
       <c r="C20" t="n">
-        <v>47.75054121985131</v>
+        <v>47.7505412198513</v>
       </c>
     </row>
     <row r="21">
@@ -664,7 +664,7 @@
         <v>26.48243578788825</v>
       </c>
       <c r="B21" t="n">
-        <v>17.37372575376297</v>
+        <v>17.37372575376298</v>
       </c>
       <c r="C21" t="n">
         <v>36.62504011501562</v>
@@ -675,7 +675,7 @@
         <v>89.27554245216118</v>
       </c>
       <c r="B22" t="n">
-        <v>72.69974922375684</v>
+        <v>72.69974922375681</v>
       </c>
       <c r="C22" t="n">
         <v>100.6828308421204</v>
@@ -686,18 +686,18 @@
         <v>18.58074882193461</v>
       </c>
       <c r="B23" t="n">
-        <v>10.57759681061329</v>
+        <v>10.57759681061331</v>
       </c>
       <c r="C23" t="n">
-        <v>28.5433259088419</v>
+        <v>28.54332590884191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>34.35005050425367</v>
+        <v>34.35005050425366</v>
       </c>
       <c r="B24" t="n">
-        <v>24.24545639045374</v>
+        <v>24.24545639045375</v>
       </c>
       <c r="C24" t="n">
         <v>44.67765409465612</v>
@@ -708,7 +708,7 @@
         <v>31.18035564535592</v>
       </c>
       <c r="B25" t="n">
-        <v>21.53733684968899</v>
+        <v>21.53733684968901</v>
       </c>
       <c r="C25" t="n">
         <v>41.53201640312793</v>
@@ -719,7 +719,7 @@
         <v>26.4142912887118</v>
       </c>
       <c r="B26" t="n">
-        <v>17.52492914084517</v>
+        <v>17.52492914084518</v>
       </c>
       <c r="C26" t="n">
         <v>36.5668396619492</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>86.09432552496592</v>
+        <v>86.09432552496594</v>
       </c>
       <c r="B27" t="n">
         <v>70.04140128529536</v>
@@ -752,7 +752,7 @@
         <v>20.14856012658937</v>
       </c>
       <c r="B29" t="n">
-        <v>11.96945742776622</v>
+        <v>11.96945742776623</v>
       </c>
       <c r="C29" t="n">
         <v>30.1015946413394</v>
@@ -763,7 +763,7 @@
         <v>45.26810720595804</v>
       </c>
       <c r="B30" t="n">
-        <v>34.0899124953031</v>
+        <v>34.08991249530311</v>
       </c>
       <c r="C30" t="n">
         <v>55.7740549729586</v>
@@ -774,7 +774,7 @@
         <v>70.3706181605326</v>
       </c>
       <c r="B31" t="n">
-        <v>56.24816840961054</v>
+        <v>56.24816840961053</v>
       </c>
       <c r="C31" t="n">
         <v>81.43196519131121</v>
@@ -796,15 +796,15 @@
         <v>72.00657396436381</v>
       </c>
       <c r="B33" t="n">
-        <v>57.48882563968127</v>
+        <v>57.48882563968126</v>
       </c>
       <c r="C33" t="n">
-        <v>83.04843437687511</v>
+        <v>83.04843437687512</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57.83915583628773</v>
+        <v>57.83915583628774</v>
       </c>
       <c r="B34" t="n">
         <v>45.13722498345264</v>
@@ -818,7 +818,7 @@
         <v>35.90082568411431</v>
       </c>
       <c r="B35" t="n">
-        <v>25.67511785437721</v>
+        <v>25.67511785437722</v>
       </c>
       <c r="C35" t="n">
         <v>46.22137271388701</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>28.01617484295478</v>
+        <v>28.01617484295479</v>
       </c>
       <c r="B37" t="n">
-        <v>18.84118806445699</v>
+        <v>18.841188064457</v>
       </c>
       <c r="C37" t="n">
         <v>38.15420862097991</v>
@@ -851,7 +851,7 @@
         <v>75.07405207449688</v>
       </c>
       <c r="B38" t="n">
-        <v>60.42375026106931</v>
+        <v>60.42375026106929</v>
       </c>
       <c r="C38" t="n">
         <v>86.10677138880369</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>48.43780206485578</v>
+        <v>48.43780206485579</v>
       </c>
       <c r="B39" t="n">
-        <v>36.79803203606785</v>
+        <v>36.79803203606786</v>
       </c>
       <c r="C39" t="n">
         <v>58.9196926644868</v>
@@ -873,7 +873,7 @@
         <v>23.3127409289905</v>
       </c>
       <c r="B40" t="n">
-        <v>14.66560621299822</v>
+        <v>14.66560621299823</v>
       </c>
       <c r="C40" t="n">
         <v>33.47940242348741</v>
@@ -895,7 +895,7 @@
         <v>64.13895924799839</v>
       </c>
       <c r="B42" t="n">
-        <v>50.6170950029905</v>
+        <v>50.61709500299049</v>
       </c>
       <c r="C42" t="n">
         <v>74.99582039723461</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>57.88475015417347</v>
+        <v>57.88475015417346</v>
       </c>
       <c r="B44" t="n">
         <v>45.01185168760825</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67.22347348292557</v>
+        <v>67.22347348292558</v>
       </c>
       <c r="B45" t="n">
-        <v>53.51421877760799</v>
+        <v>53.51421877760798</v>
       </c>
       <c r="C45" t="n">
         <v>78.06870752242979</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>90.79224538243359</v>
+        <v>90.79224538243361</v>
       </c>
       <c r="B47" t="n">
-        <v>74.20501238122139</v>
+        <v>74.20501238122138</v>
       </c>
       <c r="C47" t="n">
         <v>102.1974492348181</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46.85295463540691</v>
+        <v>46.85295463540692</v>
       </c>
       <c r="B48" t="n">
-        <v>35.44397226568547</v>
+        <v>35.44397226568548</v>
       </c>
       <c r="C48" t="n">
         <v>57.34687381872271</v>
@@ -972,7 +972,7 @@
         <v>21.79603799871808</v>
       </c>
       <c r="B49" t="n">
-        <v>13.16034305553365</v>
+        <v>13.16034305553367</v>
       </c>
       <c r="C49" t="n">
         <v>31.96478403078973</v>
@@ -983,7 +983,7 @@
         <v>28.05024709254301</v>
       </c>
       <c r="B50" t="n">
-        <v>18.76558637091589</v>
+        <v>18.76558637091591</v>
       </c>
       <c r="C50" t="n">
         <v>38.18330884751312</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.77576454824904</v>
+        <v>10.77576454824903</v>
       </c>
       <c r="B51" t="n">
-        <v>3.542692031307581</v>
+        <v>3.542692031307602</v>
       </c>
       <c r="C51" t="n">
         <v>20.78108247288763</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67.30314005039953</v>
+        <v>67.30314005039952</v>
       </c>
       <c r="B52" t="n">
         <v>53.31324378822249</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>48.38669369047344</v>
+        <v>48.38669369047345</v>
       </c>
       <c r="B53" t="n">
         <v>36.9114345763795</v>
@@ -1027,7 +1027,7 @@
         <v>17.04700976686807</v>
       </c>
       <c r="B54" t="n">
-        <v>9.110134499919276</v>
+        <v>9.11013449991929</v>
       </c>
       <c r="C54" t="n">
         <v>27.01415740287761</v>
@@ -1038,7 +1038,7 @@
         <v>26.46539966309414</v>
       </c>
       <c r="B55" t="n">
-        <v>17.41152660053352</v>
+        <v>17.41152660053353</v>
       </c>
       <c r="C55" t="n">
         <v>36.61049000174901</v>
@@ -1060,7 +1060,7 @@
         <v>78.28934125128035</v>
       </c>
       <c r="B57" t="n">
-        <v>63.00649650598966</v>
+        <v>63.00649650598965</v>
       </c>
       <c r="C57" t="n">
         <v>89.52822951075152</v>
@@ -1071,7 +1071,7 @@
         <v>27.99913871816067</v>
       </c>
       <c r="B58" t="n">
-        <v>18.87898891122754</v>
+        <v>18.87898891122755</v>
       </c>
       <c r="C58" t="n">
         <v>38.13965850771331</v>
@@ -1082,7 +1082,7 @@
         <v>60.96926438910064</v>
       </c>
       <c r="B59" t="n">
-        <v>47.90897546222575</v>
+        <v>47.90897546222574</v>
       </c>
       <c r="C59" t="n">
         <v>71.8501827057064</v>
@@ -1093,7 +1093,7 @@
         <v>18.63185719631694</v>
       </c>
       <c r="B60" t="n">
-        <v>10.46419427030165</v>
+        <v>10.46419427030167</v>
       </c>
       <c r="C60" t="n">
         <v>28.58697624864171</v>
@@ -1137,7 +1137,7 @@
         <v>18.61482107152283</v>
       </c>
       <c r="B64" t="n">
-        <v>10.5019951170722</v>
+        <v>10.50199511707222</v>
       </c>
       <c r="C64" t="n">
         <v>28.57242613537511</v>
@@ -1148,7 +1148,7 @@
         <v>76.70449382183148</v>
       </c>
       <c r="B65" t="n">
-        <v>61.65243673560729</v>
+        <v>61.65243673560728</v>
       </c>
       <c r="C65" t="n">
         <v>87.95541066498743</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>54.6864971021841</v>
+        <v>54.68649710218411</v>
       </c>
       <c r="B67" t="n">
         <v>42.39130459591735</v>
@@ -1181,7 +1181,7 @@
         <v>24.9316606080276</v>
       </c>
       <c r="B68" t="n">
-        <v>15.9440642898395</v>
+        <v>15.94406428983951</v>
       </c>
       <c r="C68" t="n">
         <v>35.08132149578472</v>
@@ -1192,7 +1192,7 @@
         <v>90.84335375681593</v>
       </c>
       <c r="B69" t="n">
-        <v>74.09160984090975</v>
+        <v>74.09160984090974</v>
       </c>
       <c r="C69" t="n">
         <v>102.2410995746179</v>
@@ -1203,7 +1203,7 @@
         <v>23.29570480419639</v>
       </c>
       <c r="B70" t="n">
-        <v>14.70340705976877</v>
+        <v>14.70340705976878</v>
       </c>
       <c r="C70" t="n">
         <v>33.46485231022081</v>
@@ -1214,7 +1214,7 @@
         <v>39.03093423692722</v>
       </c>
       <c r="B71" t="n">
-        <v>28.44686833315031</v>
+        <v>28.44686833315032</v>
       </c>
       <c r="C71" t="n">
         <v>49.57008026950182</v>
@@ -1225,7 +1225,7 @@
         <v>42.18359297103085</v>
       </c>
       <c r="B72" t="n">
-        <v>31.19278872068561</v>
+        <v>31.19278872068562</v>
       </c>
       <c r="C72" t="n">
         <v>52.70116784776342</v>
